--- a/results/I3_N5_M2_T30_C100_DepCentral_s2_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepCentral_s2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1572.329871837568</v>
+        <v>1287.706724749107</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9590001106262207</v>
+        <v>1.25600004196167</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.84647314566407</v>
+        <v>25.09317581765922</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.77153722745032</v>
+        <v>7.86881804756871</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.074935918213756</v>
+        <v>4.482366979015915</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1554.180000001141</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="10">
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -639,56 +639,12 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -755,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -799,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -962,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20.66483080554367</v>
+        <v>24.86548931250517</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +926,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>21.80306326739884</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +934,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>25.17182228993174</v>
+        <v>22.99312545677591</v>
       </c>
     </row>
     <row r="6">
@@ -994,7 +950,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>26.48326856299774</v>
+        <v>23.09681749444508</v>
       </c>
     </row>
     <row r="8">
@@ -1024,7 +980,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1059,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1073,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1087,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1101,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1115,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1126,10 +1082,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1140,13 +1096,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1154,13 +1110,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1168,13 +1124,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1182,13 +1138,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1196,211 +1152,15 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>4</v>
-      </c>
-      <c r="B21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>5</v>
-      </c>
-      <c r="B22" t="n">
-        <v>7</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>5</v>
-      </c>
-      <c r="B23" t="n">
-        <v>7</v>
-      </c>
-      <c r="C23" t="n">
-        <v>2</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>5</v>
-      </c>
-      <c r="B24" t="n">
-        <v>7</v>
-      </c>
-      <c r="C24" t="n">
-        <v>3</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>5</v>
-      </c>
-      <c r="B25" t="n">
-        <v>7</v>
-      </c>
-      <c r="C25" t="n">
-        <v>4</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B26" t="n">
-        <v>7</v>
-      </c>
-      <c r="C26" t="n">
-        <v>5</v>
-      </c>
-      <c r="D26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1503,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>154.9200000000383</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8">
@@ -1514,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>152.65</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9">
@@ -1525,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>157.9800000000378</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10">
@@ -1536,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>156.3850000000421</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11">
@@ -1547,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7900000000446</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12">
@@ -1558,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>111.2650000000031</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
@@ -1569,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>115.6150000000034</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -1580,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>116.6850000000049</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -1591,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>116.8750000000036</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -1602,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>115.9200000000055</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17">
@@ -1613,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>147.3400000000275</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18">
@@ -1624,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>159.2050000000291</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19">
@@ -1635,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>140.4300000000295</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20">
@@ -1646,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>157.7</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21">
@@ -1657,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>152.99500000003</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22">
@@ -1668,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>106.1700000000055</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -1679,7 +1439,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>112.4900000000034</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -1690,7 +1450,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.5700000000052</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
@@ -1701,7 +1461,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>110.05</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
@@ -1712,7 +1472,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>107.6750000000047</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -1723,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>207.1550000000789</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
@@ -1734,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29">
@@ -1745,7 +1505,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>202.505000000072</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30">
@@ -1756,7 +1516,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>202.170000000082</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31">
@@ -1767,7 +1527,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>210.590000000082</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32">
@@ -1778,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>147.3400000000402</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33">
@@ -1789,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>159.2050000000454</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34">
@@ -1800,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>140.430000000044</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35">
@@ -1811,7 +1571,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>157.7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36">
@@ -1822,7 +1582,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>152.9950000000463</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37">
@@ -1833,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>207.1550000001051</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38">
@@ -1844,7 +1604,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39">
@@ -1855,7 +1615,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>202.5050000000964</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40">
@@ -1866,7 +1626,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>202.1700000001027</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41">
@@ -1877,7 +1637,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>210.5900000001101</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1924,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>47.34000000003778</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -1935,7 +1695,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>59.20500000004313</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4">
@@ -1946,7 +1706,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>40.43000000004156</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -1957,7 +1717,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>57.69999999999999</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6">
@@ -1968,7 +1728,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>52.995000000044</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -1979,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.1550000001026</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1990,7 +1750,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>97</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -2001,7 +1761,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>102.5050000000938</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -2012,7 +1772,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>102.1700000001001</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
@@ -2023,7 +1783,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>110.5900000001075</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2348,7 +2108,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2430,7 +2190,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2441,7 +2201,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2452,7 +2212,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2463,7 +2223,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2474,7 +2234,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2485,7 +2245,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2496,7 +2256,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -2507,7 +2267,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -2518,7 +2278,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
         <v>4</v>
@@ -2529,122 +2289,12 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>4</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>5</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>5</v>
-      </c>
-      <c r="B23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>5</v>
-      </c>
-      <c r="B24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>5</v>
-      </c>
-      <c r="B25" t="n">
-        <v>4</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B26" t="n">
-        <v>5</v>
-      </c>
-      <c r="C26" t="n">
         <v>1</v>
       </c>
     </row>
